--- a/assets/Staff.xlsx
+++ b/assets/Staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School Attendance\school_attendance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4111D4-1D58-4E51-84B7-CA7D53C8EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD104DAD-DA58-42D5-B0C8-9CA29702AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{BC3C27FA-399C-4683-8842-CBACDAF407A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>class_ids</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;+91&quot;##########"/>
+    <numFmt numFmtId="164" formatCode="&quot;+91&quot;##########"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,10 +112,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1F5FC0-DDF8-4946-8FF4-CFE96214522B}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +448,7 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,6 +472,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
